--- a/data/trans_orig/P78C8_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P78C8_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4341258-B4BA-4535-B44F-648239ADE84E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E360B162-DDF9-406A-9C4A-F2FCA1218168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00C8049B-3027-4B56-83CA-A4469D5832DE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CC6A35CB-5064-4F84-9FDC-EB7A72BA6896}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -516,7 +516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EE6F482-0440-4739-982D-E1CCC04A9DD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682C22EF-F6E7-4422-B312-9CA87918C03E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1294,7 +1294,7 @@
         <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1309,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="N18" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1343,7 +1343,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>21</v>
@@ -1358,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>21</v>
@@ -1394,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="I20" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>19</v>
@@ -1409,7 +1409,7 @@
         <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>19</v>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="I21" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>21</v>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="N21" s="7">
-        <v>3764</v>
+        <v>2897</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>21</v>
